--- a/paper/03_CRC/study2study_results_ROC.xlsx
+++ b/paper/03_CRC/study2study_results_ROC.xlsx
@@ -1,63 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>train_country</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,35 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -388,134 +353,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>train_country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
+      <c r="C2" t="n">
+        <v>0.7462462462462461</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7537890504175688</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8875000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7810650887573964</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8205659075224292</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.7012012012012011</v>
-      </c>
-      <c r="D2">
-        <v>0.7250231982678628</v>
-      </c>
-      <c r="E2">
-        <v>0.8272222222222222</v>
-      </c>
-      <c r="F2">
-        <v>0.7629437869822485</v>
+      <c r="D3" t="n">
+        <v>0.7939993813795237</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7629437869822486</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8799171842650103</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8642392392392393</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.7605244996549345</v>
-      </c>
-      <c r="C3">
+      <c r="E4" t="n">
+        <v>0.9238888888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7681213017751479</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8564527260179434</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8573573573573574</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8110114444788122</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0.7621404268481287</v>
-      </c>
-      <c r="E3">
-        <v>0.8655555555555555</v>
-      </c>
-      <c r="F3">
-        <v>0.7307692307692307</v>
+      <c r="F5" t="n">
+        <v>0.7799556213017751</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.8454106280193235</v>
-      </c>
-      <c r="C4">
-        <v>0.8163163163163162</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.8325</v>
-      </c>
-      <c r="F4">
-        <v>0.7034023668639053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.7650103519668737</v>
-      </c>
-      <c r="C5">
-        <v>0.8115615615615617</v>
-      </c>
-      <c r="D5">
-        <v>0.7485307763686978</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.7614644970414202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.797446514837819</v>
-      </c>
-      <c r="C6">
-        <v>0.7192192192192192</v>
-      </c>
-      <c r="D6">
-        <v>0.6579028765852151</v>
-      </c>
-      <c r="E6">
-        <v>0.8097222222222222</v>
-      </c>
-      <c r="F6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8557625948930297</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7642642642642644</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6922363130219611</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8113888888888889</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>